--- a/amostras.xlsx
+++ b/amostras.xlsx
@@ -2272,7 +2272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2283,37 +2283,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ca</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cu</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>Fe</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mn</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Zn</t>
         </is>
       </c>
     </row>
@@ -2324,25 +2294,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>137</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17762</v>
-      </c>
-      <c r="F2" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5250</v>
-      </c>
-      <c r="H2" t="n">
-        <v>35.9</v>
+        <v>54165</v>
       </c>
     </row>
     <row r="3">
@@ -2352,25 +2304,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2059.807520771502</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11.91885446849335</v>
-      </c>
-      <c r="D3" t="n">
-        <v>145.4857492523761</v>
-      </c>
-      <c r="E3" t="n">
-        <v>17660.92673709189</v>
-      </c>
-      <c r="F3" t="n">
-        <v>31.01621320510856</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5081.723624883195</v>
-      </c>
-      <c r="H3" t="n">
-        <v>32.34854054838241</v>
+        <v>57519.9679434668</v>
       </c>
     </row>
     <row r="4">
@@ -2380,25 +2314,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2252.242704207011</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19.65357673658553</v>
-      </c>
-      <c r="D4" t="n">
-        <v>191.5626394915295</v>
-      </c>
-      <c r="E4" t="n">
-        <v>18434.0548603818</v>
-      </c>
-      <c r="F4" t="n">
-        <v>32.5290985387472</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4821.070154408882</v>
-      </c>
-      <c r="H4" t="n">
-        <v>54.85585122341912</v>
+        <v>75737.15597123135</v>
       </c>
     </row>
     <row r="5">
@@ -2408,25 +2324,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2227.886226399204</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.57035709615819</v>
-      </c>
-      <c r="D5" t="n">
-        <v>163.5004775731157</v>
-      </c>
-      <c r="E5" t="n">
-        <v>16857.37934579455</v>
-      </c>
-      <c r="F5" t="n">
-        <v>28.91575957238336</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4526.241500491815</v>
-      </c>
-      <c r="H5" t="n">
-        <v>38.61128513800911</v>
+        <v>64642.36034852417</v>
       </c>
     </row>
   </sheetData>

--- a/amostras.xlsx
+++ b/amostras.xlsx
@@ -2272,7 +2272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2283,7 +2283,42 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Fe</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Zn</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2329,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54165</v>
+        <v>2022</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>137</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17762</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5250</v>
+      </c>
+      <c r="H2" t="n">
+        <v>258</v>
+      </c>
+      <c r="I2" t="n">
+        <v>35.9</v>
       </c>
     </row>
     <row r="3">
@@ -2304,7 +2360,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57519.9679434668</v>
+        <v>2059.807520771502</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.91885446849335</v>
+      </c>
+      <c r="D3" t="n">
+        <v>145.4857492523761</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17660.92673709189</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31.01621320510856</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5081.723624883195</v>
+      </c>
+      <c r="H3" t="n">
+        <v>238.8257745222286</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32.34854054838241</v>
       </c>
     </row>
     <row r="4">
@@ -2314,7 +2391,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75737.15597123135</v>
+        <v>2252.242704207011</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19.65357673658553</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.5626394915295</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18434.0548603818</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32.5290985387472</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4821.070154408882</v>
+      </c>
+      <c r="H4" t="n">
+        <v>239.5924528657763</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54.85585122341912</v>
       </c>
     </row>
     <row r="5">
@@ -2324,7 +2422,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64642.36034852417</v>
+        <v>2227.886226399204</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.57035709615819</v>
+      </c>
+      <c r="D5" t="n">
+        <v>163.5004775731157</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16857.37934579455</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.91575957238336</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4526.241500491815</v>
+      </c>
+      <c r="H5" t="n">
+        <v>242.8046218676179</v>
+      </c>
+      <c r="I5" t="n">
+        <v>38.61128513800911</v>
       </c>
     </row>
   </sheetData>
